--- a/VerveStacks_FIN_grids/SysSettings.xlsx
+++ b/VerveStacks_FIN_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763438E2-90F6-46C7-AAD4-170CFF93B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339BB780-EB5F-4889-8F49-2837FC32B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4583,7 +4583,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71670E2-8375-8DD9-51ED-3EA3BEC1934E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745E4729-4775-DDB3-9832-8443D9E1DED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5083,7 +5083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE974954-8BBA-4CEB-A598-AB37B509DC97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C74079-8ECC-4421-9D5B-D0A1D9FC9C67}">
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SysSettings.xlsx
+++ b/VerveStacks_FIN_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339BB780-EB5F-4889-8F49-2837FC32B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A27C0-97D6-416C-A112-F2DB4AC2C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4583,7 +4583,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745E4729-4775-DDB3-9832-8443D9E1DED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C5673F-D369-6165-1ACF-8A00FB8D74DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5083,7 +5083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C74079-8ECC-4421-9D5B-D0A1D9FC9C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A775E16-E723-46A6-9E3E-5D89594BFD5C}">
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SysSettings.xlsx
+++ b/VerveStacks_FIN_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A27C0-97D6-416C-A112-F2DB4AC2C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B282F4-6142-41E8-B74E-4D160033A403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4583,7 +4583,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C5673F-D369-6165-1ACF-8A00FB8D74DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC995D9-F815-6B14-CBAD-D8CDA1A0D134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5083,7 +5083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A775E16-E723-46A6-9E3E-5D89594BFD5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED1B0D7-F229-47CE-9735-82AF1EEE7E26}">
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SysSettings.xlsx
+++ b/VerveStacks_FIN_grids/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B282F4-6142-41E8-B74E-4D160033A403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83150D2A-B607-41EE-B6B1-BD00B3334465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4583,7 +4583,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC995D9-F815-6B14-CBAD-D8CDA1A0D134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68A8A34-6FF8-19BB-7CCB-6F02331633EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5083,7 +5083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED1B0D7-F229-47CE-9735-82AF1EEE7E26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C98640C-3711-49F6-B805-5EA5A2068EC6}">
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
